--- a/data/trans_orig/P6517-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6517-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBEC3A41-9ACC-489F-82BC-086B7FDC1977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C5C8F34-7F5A-45DD-B452-D336C5C3CD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5FA7D9EA-66E4-4D33-9DB1-A0094D7B1BC9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{32D3DF8C-90AE-4F38-B833-C11478145265}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
   <si>
     <t>Población según si tienen periodos largos de intensa concentración durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>51,28%</t>
   </si>
   <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
   </si>
   <si>
     <t>56,91%</t>
   </si>
   <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
   </si>
   <si>
     <t>52,97%</t>
   </si>
   <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>24,06%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
   </si>
   <si>
     <t>25,5%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
   </si>
   <si>
     <t>24,5%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,274 +134,277 @@
     <t>20,97%</t>
   </si>
   <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
     <t>11,44%</t>
   </si>
   <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
   </si>
   <si>
     <t>17,39%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -410,109 +413,109 @@
     <t>39,29%</t>
   </si>
   <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
   </si>
   <si>
     <t>43,49%</t>
   </si>
   <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
   </si>
   <si>
     <t>40,73%</t>
   </si>
   <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
   </si>
   <si>
     <t>26,79%</t>
   </si>
   <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
   </si>
   <si>
     <t>32,64%</t>
   </si>
   <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
   </si>
   <si>
     <t>28,8%</t>
   </si>
   <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
   </si>
   <si>
     <t>16,62%</t>
   </si>
   <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
   </si>
   <si>
     <t>21,2%</t>
   </si>
   <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
   </si>
   <si>
     <t>10,33%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
   </si>
   <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -521,172 +524,166 @@
     <t>34,68%</t>
   </si>
   <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
   </si>
   <si>
     <t>46,81%</t>
   </si>
   <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
   </si>
   <si>
     <t>39,67%</t>
   </si>
   <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
   </si>
   <si>
     <t>26,73%</t>
   </si>
   <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
   </si>
   <si>
     <t>26,09%</t>
   </si>
   <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
   </si>
   <si>
     <t>26,47%</t>
   </si>
   <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
+    <t>29,56%</t>
   </si>
   <si>
     <t>25,62%</t>
   </si>
   <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
   </si>
   <si>
     <t>17,42%</t>
   </si>
   <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
   </si>
   <si>
     <t>12,97%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
   </si>
   <si>
     <t>9,69%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
   </si>
   <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
   </si>
   <si>
     <t>40,26%</t>
   </si>
   <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
   </si>
   <si>
     <t>47,28%</t>
   </si>
   <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
   </si>
   <si>
     <t>28,32%</t>
   </si>
   <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
   </si>
   <si>
     <t>31,32%</t>
   </si>
   <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
   </si>
   <si>
     <t>14,68%</t>
@@ -695,40 +692,37 @@
     <t>12,54%</t>
   </si>
   <si>
-    <t>16,96%</t>
+    <t>17,12%</t>
   </si>
   <si>
     <t>19,22%</t>
   </si>
   <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
   <si>
     <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
   </si>
   <si>
     <t>9,84%</t>
@@ -1146,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1557D37A-65BA-4069-B096-E808E2A62D0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2DB8AD-4276-4AC2-9307-65DF4C580386}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1901,13 +1895,13 @@
         <v>30506</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>133</v>
@@ -1916,13 +1910,13 @@
         <v>143548</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,13 +1931,13 @@
         <v>58936</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -1952,13 +1946,13 @@
         <v>13198</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -1967,13 +1961,13 @@
         <v>72134</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,7 +2023,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2041,13 +2035,13 @@
         <v>159679</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -2056,13 +2050,13 @@
         <v>92621</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>243</v>
@@ -2071,13 +2065,13 @@
         <v>252299</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,13 +2086,13 @@
         <v>108867</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>67</v>
@@ -2107,13 +2101,13 @@
         <v>69497</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>162</v>
@@ -2122,13 +2116,13 @@
         <v>178364</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,13 +2137,13 @@
         <v>95911</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>37</v>
@@ -2158,13 +2152,13 @@
         <v>35381</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>127</v>
@@ -2173,13 +2167,13 @@
         <v>131292</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,13 +2188,13 @@
         <v>41977</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -2209,13 +2203,13 @@
         <v>15447</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>56</v>
@@ -2224,13 +2218,13 @@
         <v>57424</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,7 +2280,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2298,13 +2292,13 @@
         <v>191560</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>170</v>
@@ -2313,13 +2307,13 @@
         <v>181161</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>369</v>
@@ -2328,13 +2322,13 @@
         <v>372721</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,13 +2343,13 @@
         <v>147686</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>94</v>
@@ -2364,13 +2358,13 @@
         <v>100981</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>245</v>
@@ -2379,10 +2373,10 @@
         <v>248667</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>177</v>
@@ -2585,13 +2579,13 @@
         <v>1249467</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,13 +2600,13 @@
         <v>538543</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>305</v>
@@ -2621,13 +2615,13 @@
         <v>320448</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>815</v>
@@ -2636,13 +2630,13 @@
         <v>858991</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2651,13 @@
         <v>411823</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>148</v>
@@ -2672,13 +2666,13 @@
         <v>150240</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>547</v>
@@ -2687,13 +2681,13 @@
         <v>562064</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2702,13 @@
         <v>185777</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>67</v>
@@ -2723,13 +2717,13 @@
         <v>68735</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>246</v>
@@ -2738,13 +2732,13 @@
         <v>254512</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,7 +2794,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6517-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6517-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C5C8F34-7F5A-45DD-B452-D336C5C3CD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E04DEAC4-3FB5-402E-865F-9DDF86291778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{32D3DF8C-90AE-4F38-B833-C11478145265}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5343EEB3-6F29-4F1A-A7D9-59ED5EB61C27}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="233">
   <si>
     <t>Población según si tienen periodos largos de intensa concentración durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -74,16 +74,16 @@
     <t>51,28%</t>
   </si>
   <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
   </si>
   <si>
     <t>56,91%</t>
   </si>
   <si>
-    <t>38,27%</t>
+    <t>36,64%</t>
   </si>
   <si>
     <t>74,96%</t>
@@ -92,10 +92,10 @@
     <t>52,97%</t>
   </si>
   <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,628 +104,634 @@
     <t>24,06%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
   </si>
   <si>
     <t>25,5%</t>
   </si>
   <si>
-    <t>10,83%</t>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
   </si>
   <si>
     <t>44,1%</t>
   </si>
   <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
   </si>
   <si>
     <t>11,34%</t>
   </si>
   <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>9,84%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1140,7 +1146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2DB8AD-4276-4AC2-9307-65DF4C580386}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D82EC0-9BD9-4844-84C7-9EE75B7304A3}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2376,10 +2382,10 @@
         <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,13 +2400,13 @@
         <v>141503</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>65</v>
@@ -2409,13 +2415,13 @@
         <v>67401</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>210</v>
@@ -2424,13 +2430,13 @@
         <v>208904</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,13 +2451,13 @@
         <v>71661</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>36</v>
@@ -2460,13 +2466,13 @@
         <v>37484</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>112</v>
@@ -2475,13 +2481,13 @@
         <v>109145</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2555,13 @@
         <v>765745</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>459</v>
@@ -2564,10 +2570,10 @@
         <v>483722</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>201</v>
@@ -2579,13 +2585,13 @@
         <v>1249467</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2606,13 @@
         <v>538543</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>305</v>
@@ -2615,13 +2621,13 @@
         <v>320448</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>815</v>
@@ -2630,13 +2636,13 @@
         <v>858991</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,13 +2657,13 @@
         <v>411823</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>148</v>
@@ -2666,13 +2672,13 @@
         <v>150240</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>547</v>
@@ -2681,13 +2687,13 @@
         <v>562064</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2708,13 @@
         <v>185777</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>67</v>
@@ -2717,13 +2723,13 @@
         <v>68735</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>246</v>
@@ -2732,13 +2738,13 @@
         <v>254512</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,7 +2800,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6517-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6517-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E04DEAC4-3FB5-402E-865F-9DDF86291778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A284F6DC-DF53-47BD-957F-F3828A7FCCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5343EEB3-6F29-4F1A-A7D9-59ED5EB61C27}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A7D94648-824E-45D4-8AF5-5D34844F4AB7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,448 +74,445 @@
     <t>51,28%</t>
   </si>
   <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
   </si>
   <si>
     <t>56,91%</t>
   </si>
   <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
     <t>36,64%</t>
   </si>
   <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
     <t>45,01%</t>
   </si>
   <si>
     <t>26,79%</t>
   </si>
   <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
   </si>
   <si>
     <t>32,64%</t>
   </si>
   <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
   </si>
   <si>
     <t>28,8%</t>
   </si>
   <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
   </si>
   <si>
     <t>16,62%</t>
   </si>
   <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
   </si>
   <si>
     <t>21,2%</t>
   </si>
   <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
   </si>
   <si>
     <t>10,33%</t>
   </si>
   <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
   </si>
   <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -524,214 +521,217 @@
     <t>34,68%</t>
   </si>
   <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
   </si>
   <si>
     <t>46,81%</t>
   </si>
   <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
   </si>
   <si>
     <t>39,67%</t>
   </si>
   <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
   </si>
   <si>
     <t>26,73%</t>
   </si>
   <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
   </si>
   <si>
     <t>26,09%</t>
   </si>
   <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
   </si>
   <si>
     <t>26,47%</t>
   </si>
   <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
   </si>
   <si>
     <t>25,62%</t>
   </si>
   <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
   </si>
   <si>
     <t>17,42%</t>
   </si>
   <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
   </si>
   <si>
     <t>12,97%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
   </si>
   <si>
     <t>9,69%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
   </si>
   <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
   </si>
   <si>
     <t>40,26%</t>
   </si>
   <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
   </si>
   <si>
     <t>47,28%</t>
   </si>
   <si>
-    <t>50,46%</t>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
   </si>
   <si>
     <t>42,72%</t>
   </si>
   <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
   </si>
   <si>
     <t>28,32%</t>
   </si>
   <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
   </si>
   <si>
     <t>31,32%</t>
   </si>
   <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
   </si>
   <si>
     <t>19,22%</t>
   </si>
   <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1146,7 +1146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D82EC0-9BD9-4844-84C7-9EE75B7304A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E6BB47-B53E-4689-9747-8FD96C9F42E5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1901,13 +1901,13 @@
         <v>30506</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>133</v>
@@ -1916,13 +1916,13 @@
         <v>143548</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,13 +1937,13 @@
         <v>58936</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -1952,13 +1952,13 @@
         <v>13198</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -1967,13 +1967,13 @@
         <v>72134</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,7 +2029,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2041,13 +2041,13 @@
         <v>159679</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -2056,13 +2056,13 @@
         <v>92621</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>243</v>
@@ -2071,13 +2071,13 @@
         <v>252299</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,13 +2092,13 @@
         <v>108867</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>67</v>
@@ -2107,13 +2107,13 @@
         <v>69497</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>162</v>
@@ -2122,13 +2122,13 @@
         <v>178364</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,13 +2143,13 @@
         <v>95911</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>37</v>
@@ -2158,13 +2158,13 @@
         <v>35381</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>127</v>
@@ -2173,13 +2173,13 @@
         <v>131292</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,13 +2194,13 @@
         <v>41977</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -2209,13 +2209,13 @@
         <v>15447</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>56</v>
@@ -2224,13 +2224,13 @@
         <v>57424</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,7 +2286,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2298,13 +2298,13 @@
         <v>191560</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>170</v>
@@ -2313,13 +2313,13 @@
         <v>181161</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>369</v>
@@ -2328,13 +2328,13 @@
         <v>372721</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,13 +2349,13 @@
         <v>147686</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>94</v>
@@ -2364,13 +2364,13 @@
         <v>100981</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>245</v>
@@ -2379,13 +2379,13 @@
         <v>248667</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,13 +2400,13 @@
         <v>141503</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>65</v>
@@ -2415,13 +2415,13 @@
         <v>67401</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>210</v>
@@ -2430,13 +2430,13 @@
         <v>208904</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,13 +2451,13 @@
         <v>71661</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>36</v>
@@ -2466,13 +2466,13 @@
         <v>37484</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>112</v>
@@ -2481,13 +2481,13 @@
         <v>109145</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,13 +2555,13 @@
         <v>765745</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>459</v>
@@ -2570,10 +2570,10 @@
         <v>483722</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>201</v>

--- a/data/trans_orig/P6517-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6517-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A284F6DC-DF53-47BD-957F-F3828A7FCCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E832BDF6-D800-497E-B899-AD747F044885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A7D94648-824E-45D4-8AF5-5D34844F4AB7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9D943A30-6ED7-4AD1-8D14-2179A50A5DD0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="199">
   <si>
     <t>Población según si tienen periodos largos de intensa concentración durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -65,303 +65,201 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
   </si>
   <si>
     <t>Muchas veces</t>
   </si>
   <si>
-    <t>20,97%</t>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
   </si>
   <si>
     <t>11,44%</t>
   </si>
   <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
     <t>7,98%</t>
   </si>
   <si>
@@ -404,7 +302,7 @@
     <t>11,23%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>39,29%</t>
@@ -1146,8 +1044,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E6BB47-B53E-4689-9747-8FD96C9F42E5}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0560147C-C2E3-496C-B460-504E829A737C}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1264,10 +1162,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="D4" s="7">
-        <v>29193</v>
+        <v>189561</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1279,10 +1177,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="I4" s="7">
-        <v>13938</v>
+        <v>86518</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1294,10 +1192,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c r="N4" s="7">
-        <v>43131</v>
+        <v>276079</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1315,10 +1213,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="D5" s="7">
-        <v>13698</v>
+        <v>120019</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1330,10 +1228,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I5" s="7">
-        <v>6246</v>
+        <v>50429</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1345,10 +1243,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="N5" s="7">
-        <v>19944</v>
+        <v>170448</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1366,10 +1264,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D6" s="7">
-        <v>11936</v>
+        <v>61367</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1381,10 +1279,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I6" s="7">
-        <v>1703</v>
+        <v>16952</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1396,10 +1294,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="N6" s="7">
-        <v>13639</v>
+        <v>78319</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1417,19 +1315,19 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>2099</v>
+        <v>13202</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -1438,28 +1336,28 @@
         <v>2606</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>4705</v>
+        <v>15808</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1468,102 +1366,102 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>50</v>
+        <v>367</v>
       </c>
       <c r="D8" s="7">
-        <v>56926</v>
+        <v>384150</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="I8" s="7">
-        <v>24493</v>
+        <v>156505</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>77</v>
+        <v>520</v>
       </c>
       <c r="N8" s="7">
-        <v>81419</v>
+        <v>540655</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="D9" s="7">
-        <v>160367</v>
+        <v>224946</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="I9" s="7">
-        <v>72580</v>
+        <v>123422</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>221</v>
+        <v>317</v>
       </c>
       <c r="N9" s="7">
-        <v>232947</v>
+        <v>348367</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1572,49 +1470,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="D10" s="7">
-        <v>106321</v>
+        <v>161971</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="I10" s="7">
-        <v>44183</v>
+        <v>99541</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>147</v>
+        <v>243</v>
       </c>
       <c r="N10" s="7">
-        <v>150504</v>
+        <v>261512</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1623,49 +1521,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="D11" s="7">
-        <v>49431</v>
+        <v>113042</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I11" s="7">
-        <v>15249</v>
+        <v>30506</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="N11" s="7">
-        <v>64680</v>
+        <v>143548</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,49 +1572,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D12" s="7">
-        <v>11104</v>
+        <v>58936</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>13198</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="N12" s="7">
-        <v>11104</v>
+        <v>72134</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,102 +1623,102 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>317</v>
+        <v>507</v>
       </c>
       <c r="D13" s="7">
-        <v>327223</v>
+        <v>558895</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>126</v>
+        <v>248</v>
       </c>
       <c r="I13" s="7">
-        <v>132012</v>
+        <v>266666</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>443</v>
+        <v>755</v>
       </c>
       <c r="N13" s="7">
-        <v>459235</v>
+        <v>825561</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="D14" s="7">
-        <v>224946</v>
+        <v>159679</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="I14" s="7">
-        <v>123422</v>
+        <v>92621</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
-        <v>317</v>
+        <v>243</v>
       </c>
       <c r="N14" s="7">
-        <v>348367</v>
+        <v>252299</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,49 +1727,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="D15" s="7">
-        <v>161971</v>
+        <v>108867</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="I15" s="7">
-        <v>99541</v>
+        <v>69497</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
-        <v>243</v>
+        <v>162</v>
       </c>
       <c r="N15" s="7">
-        <v>261512</v>
+        <v>178364</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,49 +1778,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D16" s="7">
-        <v>113042</v>
+        <v>95911</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I16" s="7">
-        <v>30506</v>
+        <v>35381</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N16" s="7">
-        <v>143548</v>
+        <v>131292</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,49 +1829,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D17" s="7">
-        <v>58936</v>
+        <v>41977</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17" s="7">
-        <v>13198</v>
+        <v>15447</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N17" s="7">
-        <v>72134</v>
+        <v>57424</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,102 +1880,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>507</v>
+        <v>375</v>
       </c>
       <c r="D18" s="7">
-        <v>558895</v>
+        <v>406434</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="I18" s="7">
-        <v>266666</v>
+        <v>212946</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>755</v>
+        <v>588</v>
       </c>
       <c r="N18" s="7">
-        <v>825561</v>
+        <v>619380</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="D19" s="7">
-        <v>159679</v>
+        <v>191560</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="I19" s="7">
-        <v>92621</v>
+        <v>181161</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
-        <v>243</v>
+        <v>369</v>
       </c>
       <c r="N19" s="7">
-        <v>252299</v>
+        <v>372721</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,49 +1984,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="D20" s="7">
-        <v>108867</v>
+        <v>147686</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="I20" s="7">
-        <v>69497</v>
+        <v>100981</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
-        <v>162</v>
+        <v>245</v>
       </c>
       <c r="N20" s="7">
-        <v>178364</v>
+        <v>248667</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,49 +2035,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="D21" s="7">
-        <v>95911</v>
+        <v>141503</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="I21" s="7">
-        <v>35381</v>
+        <v>67401</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="N21" s="7">
-        <v>131292</v>
+        <v>208904</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,49 +2086,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D22" s="7">
-        <v>41977</v>
+        <v>71661</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I22" s="7">
-        <v>15447</v>
+        <v>37484</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="N22" s="7">
-        <v>57424</v>
+        <v>109145</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,102 +2137,102 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>375</v>
+        <v>571</v>
       </c>
       <c r="D23" s="7">
-        <v>406434</v>
+        <v>552409</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>213</v>
+        <v>365</v>
       </c>
       <c r="I23" s="7">
-        <v>212946</v>
+        <v>387028</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>588</v>
+        <v>936</v>
       </c>
       <c r="N23" s="7">
-        <v>619380</v>
+        <v>939437</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>199</v>
+        <v>732</v>
       </c>
       <c r="D24" s="7">
-        <v>191560</v>
+        <v>765745</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
+        <v>459</v>
+      </c>
+      <c r="I24" s="7">
+        <v>483722</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1191</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1249467</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="I24" s="7">
-        <v>181161</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M24" s="7">
-        <v>369</v>
-      </c>
-      <c r="N24" s="7">
-        <v>372721</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,49 +2241,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>151</v>
+        <v>510</v>
       </c>
       <c r="D25" s="7">
-        <v>147686</v>
+        <v>538543</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
-        <v>94</v>
+        <v>305</v>
       </c>
       <c r="I25" s="7">
-        <v>100981</v>
+        <v>320448</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
-        <v>245</v>
+        <v>815</v>
       </c>
       <c r="N25" s="7">
-        <v>248667</v>
+        <v>858991</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,49 +2292,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>145</v>
+        <v>399</v>
       </c>
       <c r="D26" s="7">
-        <v>141503</v>
+        <v>411823</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="I26" s="7">
-        <v>67401</v>
+        <v>150240</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
-        <v>210</v>
+        <v>547</v>
       </c>
       <c r="N26" s="7">
-        <v>208904</v>
+        <v>562064</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,49 +2343,49 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="D27" s="7">
-        <v>71661</v>
+        <v>185777</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H27" s="7">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="I27" s="7">
-        <v>37484</v>
+        <v>68735</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c r="N27" s="7">
-        <v>109145</v>
+        <v>254512</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,319 +2394,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>571</v>
+        <v>1820</v>
       </c>
       <c r="D28" s="7">
-        <v>552409</v>
+        <v>1901888</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>365</v>
+        <v>979</v>
       </c>
       <c r="I28" s="7">
-        <v>387028</v>
+        <v>1023145</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>936</v>
+        <v>2799</v>
       </c>
       <c r="N28" s="7">
-        <v>939437</v>
+        <v>2925033</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>732</v>
-      </c>
-      <c r="D29" s="7">
-        <v>765745</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="A29" t="s">
         <v>198</v>
       </c>
-      <c r="H29" s="7">
-        <v>459</v>
-      </c>
-      <c r="I29" s="7">
-        <v>483722</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1191</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1249467</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>510</v>
-      </c>
-      <c r="D30" s="7">
-        <v>538543</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H30" s="7">
-        <v>305</v>
-      </c>
-      <c r="I30" s="7">
-        <v>320448</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M30" s="7">
-        <v>815</v>
-      </c>
-      <c r="N30" s="7">
-        <v>858991</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>399</v>
-      </c>
-      <c r="D31" s="7">
-        <v>411823</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H31" s="7">
-        <v>148</v>
-      </c>
-      <c r="I31" s="7">
-        <v>150240</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M31" s="7">
-        <v>547</v>
-      </c>
-      <c r="N31" s="7">
-        <v>562064</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7">
-        <v>179</v>
-      </c>
-      <c r="D32" s="7">
-        <v>185777</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H32" s="7">
-        <v>67</v>
-      </c>
-      <c r="I32" s="7">
-        <v>68735</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="M32" s="7">
-        <v>246</v>
-      </c>
-      <c r="N32" s="7">
-        <v>254512</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1820</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1901888</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="7">
-        <v>979</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1023145</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2799</v>
-      </c>
-      <c r="N33" s="7">
-        <v>2925033</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>232</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
